--- a/Yazılım Kalite Güvencesi ve Test/CicekSepeti_Test/Test Cases/TestCase.xlsx
+++ b/Yazılım Kalite Güvencesi ve Test/CicekSepeti_Test/Test Cases/TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzzzzGithub\yazilimtest\Yazılım Kalite Güvencesi ve Test\CicekSepeti_Test\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -956,7 +956,7 @@
         <v>45</v>
       </c>
       <c r="H3" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -983,7 +983,7 @@
         <v>45</v>
       </c>
       <c r="H4" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -1010,7 +1010,7 @@
         <v>46</v>
       </c>
       <c r="H5" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>50</v>
@@ -1040,7 +1040,7 @@
         <v>107</v>
       </c>
       <c r="H6" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>107</v>
       </c>
       <c r="H7" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -1094,7 +1094,7 @@
         <v>107</v>
       </c>
       <c r="H8" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -1121,7 +1121,7 @@
         <v>107</v>
       </c>
       <c r="H9" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -1148,7 +1148,7 @@
         <v>107</v>
       </c>
       <c r="H10" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -1175,7 +1175,7 @@
         <v>107</v>
       </c>
       <c r="H11" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -1202,7 +1202,7 @@
         <v>107</v>
       </c>
       <c r="H12" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -1229,7 +1229,7 @@
         <v>107</v>
       </c>
       <c r="H13" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -1256,7 +1256,7 @@
         <v>107</v>
       </c>
       <c r="H14" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -1283,7 +1283,7 @@
         <v>107</v>
       </c>
       <c r="H15" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -1310,7 +1310,7 @@
         <v>107</v>
       </c>
       <c r="H16" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -1337,7 +1337,7 @@
         <v>107</v>
       </c>
       <c r="H17" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J17" s="3"/>
     </row>
@@ -1364,7 +1364,7 @@
         <v>107</v>
       </c>
       <c r="H18" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -1391,7 +1391,7 @@
         <v>107</v>
       </c>
       <c r="H19" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -1418,7 +1418,7 @@
         <v>107</v>
       </c>
       <c r="H20" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J20" s="3"/>
     </row>
@@ -1445,7 +1445,7 @@
         <v>107</v>
       </c>
       <c r="H21" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -1472,7 +1472,7 @@
         <v>107</v>
       </c>
       <c r="H22" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -1499,7 +1499,7 @@
         <v>107</v>
       </c>
       <c r="H23" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -1526,7 +1526,7 @@
         <v>107</v>
       </c>
       <c r="H24" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -1553,7 +1553,7 @@
         <v>107</v>
       </c>
       <c r="H25" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -1580,7 +1580,7 @@
         <v>107</v>
       </c>
       <c r="H26" s="13">
-        <v>44524</v>
+        <v>44715</v>
       </c>
       <c r="J26" s="3"/>
     </row>
